--- a/Framework/src/test/resources/testdataframe.xlsx
+++ b/Framework/src/test/resources/testdataframe.xlsx
@@ -4,34 +4,215 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="11415" windowHeight="8205"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="11415" windowHeight="8205" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="login" sheetId="2" r:id="rId1"/>
+    <sheet name="pos" sheetId="4" r:id="rId2"/>
+    <sheet name="product" sheetId="1" r:id="rId3"/>
+    <sheet name="people" sheetId="3" r:id="rId4"/>
+    <sheet name="store" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>test 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+  <si>
+    <t>Product type</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Product code</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Product category</t>
+  </si>
+  <si>
+    <t>Product supplier</t>
+  </si>
+  <si>
+    <t>Product purchase price</t>
+  </si>
+  <si>
+    <t>Product tax</t>
+  </si>
+  <si>
+    <t>Product tax method</t>
+  </si>
+  <si>
+    <t>Product price</t>
+  </si>
+  <si>
+    <t>Product unit</t>
+  </si>
+  <si>
+    <t>Product alert quantity</t>
+  </si>
+  <si>
+    <t>Product options</t>
+  </si>
+  <si>
+    <t>Product description</t>
+  </si>
+  <si>
+    <t>Product color</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>exclusive</t>
+  </si>
+  <si>
+    <t>more cheese</t>
+  </si>
+  <si>
+    <t>abcdefgh</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>waiter name</t>
+  </si>
+  <si>
+    <t>waiter phone</t>
+  </si>
+  <si>
+    <t>waiter email</t>
+  </si>
+  <si>
+    <t>waiter store</t>
+  </si>
+  <si>
+    <t>Dhoni</t>
+  </si>
+  <si>
+    <t>dhoni@gmail.com</t>
+  </si>
+  <si>
+    <t>Dhoni store</t>
+  </si>
+  <si>
+    <t>customer name</t>
+  </si>
+  <si>
+    <t>customer phone</t>
+  </si>
+  <si>
+    <t>customer email</t>
+  </si>
+  <si>
+    <t>customer discount</t>
+  </si>
+  <si>
+    <t>Virat</t>
+  </si>
+  <si>
+    <t>virat@gmail.com</t>
+  </si>
+  <si>
+    <t>supplier name</t>
+  </si>
+  <si>
+    <t>supplier phone</t>
+  </si>
+  <si>
+    <t>supplier email</t>
+  </si>
+  <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>sachin@gmail.com</t>
+  </si>
+  <si>
+    <t>cash in hand</t>
+  </si>
+  <si>
+    <t>store name</t>
+  </si>
+  <si>
+    <t>store email</t>
+  </si>
+  <si>
+    <t>store phone</t>
+  </si>
+  <si>
+    <t>store country</t>
+  </si>
+  <si>
+    <t>store city</t>
+  </si>
+  <si>
+    <t>store sddress</t>
+  </si>
+  <si>
+    <t>store customer receipt</t>
+  </si>
+  <si>
+    <t>Gift Store</t>
+  </si>
+  <si>
+    <t>abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>abcd1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,13 +232,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -350,15 +538,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -367,6 +572,354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B13" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -378,7 +931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Framework/src/test/resources/testdataframe.xlsx
+++ b/Framework/src/test/resources/testdataframe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="11415" windowHeight="8205" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="11415" windowHeight="8205" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Product type</t>
   </si>
@@ -188,6 +188,30 @@
   </si>
   <si>
     <t>abcd1234</t>
+  </si>
+  <si>
+    <t>Edit Product</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t>Inclusive</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
@@ -239,10 +263,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -599,10 +626,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -723,7 +750,132 @@
         <v>21</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:B18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -844,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/Framework/src/test/resources/testdataframe.xlsx
+++ b/Framework/src/test/resources/testdataframe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="11415" windowHeight="8205" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17055" windowHeight="8520" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <sheet name="Sheet4" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:O27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>Product type</t>
   </si>
@@ -169,9 +170,6 @@
     <t>store city</t>
   </si>
   <si>
-    <t>store sddress</t>
-  </si>
-  <si>
     <t>store customer receipt</t>
   </si>
   <si>
@@ -212,6 +210,27 @@
   </si>
   <si>
     <t>abcd</t>
+  </si>
+  <si>
+    <t>store address</t>
+  </si>
+  <si>
+    <t>Edit store</t>
+  </si>
+  <si>
+    <t>Store name</t>
+  </si>
+  <si>
+    <t>Medical store</t>
+  </si>
+  <si>
+    <t>medical@gmail.com</t>
+  </si>
+  <si>
+    <t>Marthandam</t>
+  </si>
+  <si>
+    <t>abc123</t>
   </si>
 </sst>
 </file>
@@ -628,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -752,7 +771,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3"/>
     </row>
@@ -765,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -781,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -789,7 +808,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -797,7 +816,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -821,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -853,7 +872,7 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -861,7 +880,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -994,16 +1013,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1011,7 +1030,7 @@
         <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1019,7 +1038,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1035,7 +1054,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1043,12 +1062,12 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1056,18 +1075,88 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:B10"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Framework/src/test/resources/testdataframe.xlsx
+++ b/Framework/src/test/resources/testdataframe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17055" windowHeight="8520" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16815" windowHeight="8520" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="store" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="Sheet4" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="expense" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:O27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>Product type</t>
   </si>
@@ -231,13 +231,52 @@
   </si>
   <si>
     <t>abc123</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>MNC</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Edit expense</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>MCDS</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +295,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,11 +329,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1182,4 +1233,133 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="4">
+        <v>45234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Framework/src/test/resources/testdataframe.xlsx
+++ b/Framework/src/test/resources/testdataframe.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2FC1C3EE-8AB0-4FC0-A5FF-7EAB0DEA8694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16815" windowHeight="8520" activeTab="7"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="16845" windowHeight="11985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -16,12 +17,13 @@
     <sheet name="Sheet4" sheetId="7" state="hidden" r:id="rId7"/>
     <sheet name="expense" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A23:Q46"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>Product type</t>
   </si>
@@ -275,8 +277,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,10 +335,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,6 +349,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -393,7 +403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,9 +435,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,6 +487,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -634,20 +680,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -655,7 +701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -669,24 +715,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
       <c r="B1">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -695,20 +757,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -724,7 +786,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -732,7 +794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -740,7 +802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -748,7 +810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -756,7 +818,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -764,7 +826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -772,7 +834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -780,7 +842,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -788,7 +850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -796,7 +858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -804,7 +866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -812,7 +874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -820,17 +882,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -838,7 +900,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -846,7 +908,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -854,7 +916,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -862,7 +924,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -870,7 +932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -878,7 +940,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -886,7 +948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -894,7 +956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -902,7 +964,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -910,7 +972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -918,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -926,7 +988,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -934,7 +996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -951,20 +1013,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -972,7 +1034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -980,7 +1042,7 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -988,7 +1050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -996,7 +1058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1004,7 +1066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1012,7 +1074,7 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1020,7 +1082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1028,7 +1090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1036,7 +1098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1044,7 +1106,7 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1054,29 +1116,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
-    <hyperlink ref="B13" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1084,7 +1146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1092,7 +1154,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1100,7 +1162,7 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1108,7 +1170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1116,7 +1178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1124,7 +1186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1132,17 +1194,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1150,7 +1212,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1158,7 +1220,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1166,7 +1228,7 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1174,7 +1236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1182,7 +1244,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1190,7 +1252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1203,8 +1265,8 @@
     <mergeCell ref="A9:B10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1212,52 +1274,52 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="3">
         <v>45234</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1265,7 +1327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -1273,7 +1335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -1281,7 +1343,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -1289,7 +1351,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1297,25 +1359,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>44927</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -1323,7 +1385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1331,7 +1393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1339,7 +1401,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1347,7 +1409,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>

--- a/Framework/src/test/resources/testdataframe.xlsx
+++ b/Framework/src/test/resources/testdataframe.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2FC1C3EE-8AB0-4FC0-A5FF-7EAB0DEA8694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\Framework\Framework\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7136227F-750C-40F0-9155-786DD24EBF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="16845" windowHeight="11985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -18,7 +23,6 @@
     <sheet name="expense" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A23:Q46"/>
 </workbook>
 </file>
 
@@ -331,17 +335,19 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -760,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +780,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -782,7 +788,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>1234</v>
       </c>
     </row>
@@ -790,7 +796,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -798,7 +804,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -806,7 +812,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -814,7 +820,7 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>500</v>
       </c>
     </row>
@@ -822,7 +828,7 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>10</v>
       </c>
     </row>
@@ -830,7 +836,7 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -838,7 +844,7 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>1000</v>
       </c>
     </row>
@@ -846,7 +852,7 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>7</v>
       </c>
     </row>
@@ -854,7 +860,7 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>7</v>
       </c>
     </row>
@@ -862,7 +868,7 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -870,7 +876,7 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -878,19 +884,19 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -936,7 +942,7 @@
       <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>200</v>
       </c>
     </row>
@@ -944,7 +950,7 @@
       <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>4</v>
       </c>
     </row>
@@ -960,7 +966,7 @@
       <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>1000</v>
       </c>
     </row>
@@ -968,7 +974,7 @@
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>10</v>
       </c>
     </row>
@@ -976,7 +982,7 @@
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1195,14 +1201,14 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1360,14 +1366,14 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
